--- a/Data/final_tables/column_keys/supplementary_file_2_BARD1_all_reagents_columnkeys.xlsx
+++ b/Data/final_tables/column_keys/supplementary_file_2_BARD1_all_reagents_columnkeys.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Desktop/BARD1_draft_figs/supp_figs/Tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivan/Documents/GitHub/BARD1_SGE_analysis/Data/final_tables/column_keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65FC61EB-3199-2048-8583-1C81113BBA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B670124-828E-0848-BB65-8A2EF94D1DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{BF3A8B55-31F9-D240-B93E-A4F44FC19515}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{BF3A8B55-31F9-D240-B93E-A4F44FC19515}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
-    <sheet name="sge_oligos_columnkeys" sheetId="2" r:id="rId2"/>
-    <sheet name="dna_pcr1_primers_columnkeys" sheetId="3" r:id="rId3"/>
-    <sheet name="dna_pcr2_primers_columnkeys" sheetId="4" r:id="rId4"/>
-    <sheet name="rna_isoform_primers_columnkeys" sheetId="5" r:id="rId5"/>
-    <sheet name="rna_preseq_primers" sheetId="6" r:id="rId6"/>
+    <sheet name="all_reagents_columnkeys" sheetId="7" r:id="rId2"/>
+    <sheet name="sge_oligos_columnkeys" sheetId="2" r:id="rId3"/>
+    <sheet name="dna_pcr1_primers_columnkeys" sheetId="3" r:id="rId4"/>
+    <sheet name="dna_pcr2_primers_columnkeys" sheetId="4" r:id="rId5"/>
+    <sheet name="rna_isoform_primers_columnkeys" sheetId="5" r:id="rId6"/>
+    <sheet name="rna_preseq_primers" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>key</t>
   </si>
@@ -343,6 +344,30 @@
   </si>
   <si>
     <t>Sequence of the oligo. For all PCR2 primers, Illumina Truseq and Nextera adapters have been added.</t>
+  </si>
+  <si>
+    <t>all_reagents</t>
+  </si>
+  <si>
+    <t>Catalog of all reagents and materials used</t>
+  </si>
+  <si>
+    <t>Reagent</t>
+  </si>
+  <si>
+    <t>Reagent/material name</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Supplier/manufacturer</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>If applicable, catalog number of the product</t>
   </si>
 </sst>
 </file>
@@ -732,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91FAD0D-0F43-344F-BA71-98D23C6AC914}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,41 +778,49 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -797,11 +830,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A01F4CF-2C8D-694F-9BCF-A1C28A299BB5}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8552C7-4EA2-AF4A-B4C9-D9B71D4260C2}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -876,7 +956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A04C6DF-CC77-2641-B2B0-1DB3F1CFA161}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -919,7 +999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA4CBCC-4538-6945-8B64-522FE39FD377}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -978,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{394FAF03-3C5D-F546-A9C1-CE4DB848E759}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1028,11 +1108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67424E12-6343-3B4F-B7CD-E221BADF56A3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
